--- a/实验数据统计.xlsx
+++ b/实验数据统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26136" windowHeight="14268"/>
+    <workbookView windowWidth="18455" windowHeight="9947"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="149">
   <si>
     <t>无干扰</t>
   </si>
@@ -452,6 +452,18 @@
   <si>
     <t>shm mx SCHED_RR</t>
   </si>
+  <si>
+    <t>内存8G，cyber分配8逻辑核，100ms发一次，每次一条数据</t>
+  </si>
+  <si>
+    <t>发送给同channel的多个subscriber</t>
+  </si>
+  <si>
+    <t>发送给不同channel的多个subscriber</t>
+  </si>
+  <si>
+    <t>ros nodelet模式</t>
+  </si>
 </sst>
 </file>
 
@@ -479,14 +491,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -518,13 +552,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -532,8 +560,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,21 +578,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,9 +598,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,25 +629,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -632,7 +644,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,13 +710,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,7 +776,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,144 +828,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -823,6 +835,71 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -844,34 +921,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -879,47 +930,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,10 +943,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -943,137 +955,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1087,6 +1099,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17350,6 +17365,2730 @@
           </c:spPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145519989"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>ros</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>普通通信</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>模式多个订阅者的延迟情况</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber1-1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber1-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$523:$S$527</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>85879</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>83191</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>111482</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>478941</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>1660975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber4-1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber4-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$523:$T$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>102955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>501382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2836147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber4-2"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber4-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$523:$U$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>114439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>688282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4121221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber4-3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber4-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$523:$V$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>123702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>869772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4834630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber4-4"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber4-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$523:$W$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>131475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1059185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5403920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$523:$X$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>568718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2874662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-2"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$523:$Y$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>131698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>762020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4181751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$523:$Z$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>140943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>937491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5566122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-4"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$523:$AA$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>151814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1125869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6770741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$523:$AB$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>162371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1305518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7792846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-6"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$523:$AC$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>170002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1479005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8698745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-7"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$523:$AD$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>193871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1655186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9358374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-8"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$523:$AE$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>217108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>348582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1826299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9992787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="145519989"/>
+        <c:axId val="549533238"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="145519989"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>data size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.462504897479431"/>
+              <c:y val="0.901127333210128"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549533238"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549533238"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>延迟中位数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0085890668336763"/>
+              <c:y val="0.419532794249775"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="145519989"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>ros</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>普通通信模式多个</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>channel</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>对应</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>订阅者的延迟情况</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber1-1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber1-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$523:$S$527</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>85879</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="General">
+                  <c:v>83191</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="General">
+                  <c:v>111482</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="General">
+                  <c:v>478941</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="General">
+                  <c:v>1660975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber4-1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber4-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$523:$T$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>102955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>104974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>501382</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2836147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber4-2"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber4-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$523:$U$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>114439</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117296</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>688282</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4121221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber4-3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber4-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$523:$V$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>123702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127291</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>184117</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>869772</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4834630</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber4-4"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber4-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$523:$W$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>131475</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136425</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204438</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1059185</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5403920</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-1"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$523:$X$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>120231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>151433</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>568718</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2874662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-2"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$523:$Y$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>131698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>178481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>762020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4181751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-3"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$523:$Z$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>140943</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>145366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>199389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>937491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5566122</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-4"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$523:$AA$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>151814</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>155815</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>222700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1125869</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6770741</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-5"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$523:$AB$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>162371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>248055</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1305518</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7792846</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-6"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$523:$AC$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>170002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>176866</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>279887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1479005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8698745</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-7"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$523:$AD$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>193871</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>198567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>317941</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1655186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9358374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>"subscriber8-8"</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>subscriber8-8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="80000"/>
+                <a:lumOff val="20000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$R$523:$R$527</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1M</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$523:$AE$527</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>217108</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>223840</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>348582</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1826299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9992787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="0"/>
+        <c:axId val="145519989"/>
+        <c:axId val="549533238"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="145519989"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>data size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.462504897479431"/>
+              <c:y val="0.901127333210128"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="549533238"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="549533238"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr defTabSz="914400">
+                  <a:defRPr lang="zh-CN" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr altLang="en-US" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>延迟中位数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>/ns</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" altLang="zh-CN" b="1">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0085890668336763"/>
+              <c:y val="0.419532794249775"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -22271,6 +25010,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -32611,6 +35430,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style28.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style29.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -36184,7 +40009,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10941685" y="6900545"/>
-        <a:ext cx="6771640" cy="2743200"/>
+        <a:ext cx="7802880" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36213,8 +40038,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="17732375" y="6908800"/>
-        <a:ext cx="5646420" cy="2743200"/>
+        <a:off x="18763615" y="6908800"/>
+        <a:ext cx="5769610" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36243,7 +40068,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="23404195" y="6915150"/>
+        <a:off x="24558625" y="6915150"/>
         <a:ext cx="4663440" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36304,7 +40129,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="10942955" y="9723120"/>
-        <a:ext cx="7366000" cy="2839085"/>
+        <a:ext cx="8397240" cy="2839085"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36333,8 +40158,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="18329275" y="9700895"/>
-        <a:ext cx="7674610" cy="3342005"/>
+        <a:off x="19360515" y="9700895"/>
+        <a:ext cx="7797800" cy="3342005"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36394,7 +40219,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="11682095" y="14505940"/>
-        <a:ext cx="9366885" cy="3159760"/>
+        <a:ext cx="10398125" cy="3159760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36423,7 +40248,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21259165" y="14589125"/>
+        <a:off x="22413595" y="14589125"/>
         <a:ext cx="7045325" cy="3159125"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36454,7 +40279,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="2868930" y="19018250"/>
-        <a:ext cx="13791565" cy="3601720"/>
+        <a:ext cx="14822805" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36484,7 +40309,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="215265" y="25996265"/>
-        <a:ext cx="15224125" cy="3601720"/>
+        <a:ext cx="16255365" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36513,8 +40338,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15486380" y="26036270"/>
-        <a:ext cx="10744200" cy="3601720"/>
+        <a:off x="16517620" y="26036270"/>
+        <a:ext cx="10867390" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36543,7 +40368,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26356310" y="26017855"/>
+        <a:off x="27510740" y="26017855"/>
         <a:ext cx="9959340" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36574,7 +40399,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="106045" y="29769435"/>
-        <a:ext cx="14396085" cy="3601720"/>
+        <a:ext cx="15427325" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36603,8 +40428,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15466060" y="29848175"/>
-        <a:ext cx="10744200" cy="3601720"/>
+        <a:off x="16497300" y="29848175"/>
+        <a:ext cx="10867390" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36633,7 +40458,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26545540" y="29806265"/>
+        <a:off x="27699970" y="29806265"/>
         <a:ext cx="9959340" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36663,7 +40488,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26438225" y="32985075"/>
+        <a:off x="27592655" y="32985075"/>
         <a:ext cx="14175105" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36693,7 +40518,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="40770810" y="32950785"/>
+        <a:off x="41925240" y="32950785"/>
         <a:ext cx="10789920" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36723,7 +40548,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="26483945" y="36678235"/>
+        <a:off x="27638375" y="36678235"/>
         <a:ext cx="14175105" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36753,7 +40578,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="40791130" y="36677600"/>
+        <a:off x="41945560" y="36677600"/>
         <a:ext cx="10789920" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36783,7 +40608,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="25239980" y="42107485"/>
+        <a:off x="26394410" y="42107485"/>
         <a:ext cx="14175105" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36813,7 +40638,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21172805" y="62806580"/>
+        <a:off x="22327235" y="62806580"/>
         <a:ext cx="10744200" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36843,8 +40668,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19882485" y="49333785"/>
-        <a:ext cx="14175105" cy="3601720"/>
+        <a:off x="20913725" y="49333785"/>
+        <a:ext cx="14298295" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36873,8 +40698,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19835495" y="56797575"/>
-        <a:ext cx="14175105" cy="3601720"/>
+        <a:off x="20866735" y="56797575"/>
+        <a:ext cx="14298295" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -36903,7 +40728,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21313775" y="66802635"/>
+        <a:off x="22468205" y="66802635"/>
         <a:ext cx="10744200" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
@@ -36933,12 +40758,72 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="21930995" y="77150595"/>
+        <a:off x="23085425" y="77150595"/>
         <a:ext cx="10744200" cy="3601720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3175</xdr:colOff>
+      <xdr:row>528</xdr:row>
+      <xdr:rowOff>20320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>606425</xdr:colOff>
+      <xdr:row>552</xdr:row>
+      <xdr:rowOff>134620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="图表 25"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="20838160" y="96580960"/>
+        <a:ext cx="15036800" cy="4503420"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>562</xdr:row>
+      <xdr:rowOff>8890</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>123190</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="30" name="图表 29"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="22771735" y="102787450"/>
+        <a:ext cx="15036800" cy="4503420"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -37234,20 +41119,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:DC518"/>
+  <dimension ref="A1:DC643"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="I166" workbookViewId="0">
-      <selection activeCell="X190" sqref="X190"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A593" workbookViewId="0">
+      <selection activeCell="F610" sqref="F610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="63.1388888888889" customWidth="1"/>
-    <col min="3" max="10" width="12.8888888888889"/>
+    <col min="3" max="7" width="12.8888888888889"/>
+    <col min="8" max="8" width="27.9259259259259" customWidth="1"/>
+    <col min="9" max="10" width="12.8888888888889"/>
     <col min="11" max="11" width="21.7407407407407" customWidth="1"/>
     <col min="12" max="16" width="12.8888888888889"/>
     <col min="17" max="17" width="9.66666666666667"/>
+    <col min="18" max="18" width="10.7962962962963" customWidth="1"/>
     <col min="19" max="20" width="10.6666666666667"/>
     <col min="26" max="26" width="9.66666666666667"/>
     <col min="28" max="35" width="9.66666666666667"/>
@@ -50800,7 +54688,3155 @@
         <v>1305837.10084033</v>
       </c>
     </row>
+    <row r="522" spans="1:31">
+      <c r="A522" t="s">
+        <v>73</v>
+      </c>
+      <c r="B522" t="s">
+        <v>145</v>
+      </c>
+      <c r="C522" t="s">
+        <v>146</v>
+      </c>
+      <c r="R522" t="s">
+        <v>52</v>
+      </c>
+      <c r="S522">
+        <v>1</v>
+      </c>
+      <c r="T522">
+        <v>1</v>
+      </c>
+      <c r="U522">
+        <v>2</v>
+      </c>
+      <c r="V522">
+        <v>3</v>
+      </c>
+      <c r="W522">
+        <v>4</v>
+      </c>
+      <c r="X522">
+        <v>1</v>
+      </c>
+      <c r="Y522">
+        <v>2</v>
+      </c>
+      <c r="Z522">
+        <v>3</v>
+      </c>
+      <c r="AA522">
+        <v>4</v>
+      </c>
+      <c r="AB522">
+        <v>5</v>
+      </c>
+      <c r="AC522">
+        <v>6</v>
+      </c>
+      <c r="AD522">
+        <v>7</v>
+      </c>
+      <c r="AE522">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="523" spans="1:31">
+      <c r="A523" t="s">
+        <v>108</v>
+      </c>
+      <c r="B523">
+        <v>1</v>
+      </c>
+      <c r="D523">
+        <v>1</v>
+      </c>
+      <c r="E523">
+        <v>2</v>
+      </c>
+      <c r="F523">
+        <v>3</v>
+      </c>
+      <c r="G523">
+        <v>4</v>
+      </c>
+      <c r="I523">
+        <v>1</v>
+      </c>
+      <c r="J523">
+        <v>2</v>
+      </c>
+      <c r="K523">
+        <v>3</v>
+      </c>
+      <c r="L523">
+        <v>4</v>
+      </c>
+      <c r="M523">
+        <v>5</v>
+      </c>
+      <c r="N523">
+        <v>6</v>
+      </c>
+      <c r="O523">
+        <v>7</v>
+      </c>
+      <c r="P523">
+        <v>8</v>
+      </c>
+      <c r="R523" t="s">
+        <v>109</v>
+      </c>
+      <c r="S523" s="4">
+        <v>85879</v>
+      </c>
+      <c r="T523" s="5">
+        <v>102955</v>
+      </c>
+      <c r="U523" s="5">
+        <v>114439</v>
+      </c>
+      <c r="V523" s="5">
+        <v>123702</v>
+      </c>
+      <c r="W523">
+        <v>131475</v>
+      </c>
+      <c r="X523" s="5">
+        <v>120231</v>
+      </c>
+      <c r="Y523" s="5">
+        <v>131698</v>
+      </c>
+      <c r="Z523" s="5">
+        <v>140943</v>
+      </c>
+      <c r="AA523" s="5">
+        <v>151814</v>
+      </c>
+      <c r="AB523" s="5">
+        <v>162371</v>
+      </c>
+      <c r="AC523" s="5">
+        <v>170002</v>
+      </c>
+      <c r="AD523" s="5">
+        <v>193871</v>
+      </c>
+      <c r="AE523" s="5">
+        <v>217108</v>
+      </c>
+    </row>
+    <row r="524" spans="1:31">
+      <c r="A524" t="s">
+        <v>87</v>
+      </c>
+      <c r="B524" s="4">
+        <v>85879</v>
+      </c>
+      <c r="C524"/>
+      <c r="D524">
+        <v>123702</v>
+      </c>
+      <c r="E524">
+        <v>102955</v>
+      </c>
+      <c r="F524">
+        <v>114439</v>
+      </c>
+      <c r="G524">
+        <v>131475</v>
+      </c>
+      <c r="H524"/>
+      <c r="I524">
+        <v>131698</v>
+      </c>
+      <c r="J524">
+        <v>162371</v>
+      </c>
+      <c r="K524">
+        <v>193871</v>
+      </c>
+      <c r="L524">
+        <v>140943</v>
+      </c>
+      <c r="M524">
+        <v>151814</v>
+      </c>
+      <c r="N524">
+        <v>120231</v>
+      </c>
+      <c r="O524">
+        <v>217108</v>
+      </c>
+      <c r="P524">
+        <v>170002</v>
+      </c>
+      <c r="R524" t="s">
+        <v>111</v>
+      </c>
+      <c r="S524">
+        <v>83191</v>
+      </c>
+      <c r="T524" s="5">
+        <v>104974</v>
+      </c>
+      <c r="U524" s="5">
+        <v>117296</v>
+      </c>
+      <c r="V524" s="5">
+        <v>127291</v>
+      </c>
+      <c r="W524" s="5">
+        <v>136425</v>
+      </c>
+      <c r="X524" s="5">
+        <v>122349</v>
+      </c>
+      <c r="Y524" s="5">
+        <v>134966</v>
+      </c>
+      <c r="Z524" s="5">
+        <v>145366</v>
+      </c>
+      <c r="AA524" s="5">
+        <v>155815</v>
+      </c>
+      <c r="AB524" s="5">
+        <v>167851</v>
+      </c>
+      <c r="AC524" s="5">
+        <v>176866</v>
+      </c>
+      <c r="AD524" s="5">
+        <v>198567</v>
+      </c>
+      <c r="AE524" s="5">
+        <v>223840</v>
+      </c>
+    </row>
+    <row r="525" spans="1:31">
+      <c r="A525" t="s">
+        <v>110</v>
+      </c>
+      <c r="B525">
+        <v>91760</v>
+      </c>
+      <c r="C525"/>
+      <c r="D525">
+        <v>130772</v>
+      </c>
+      <c r="E525">
+        <v>105578</v>
+      </c>
+      <c r="F525">
+        <v>119770</v>
+      </c>
+      <c r="G525">
+        <v>140932</v>
+      </c>
+      <c r="H525"/>
+      <c r="I525">
+        <v>137626</v>
+      </c>
+      <c r="J525">
+        <v>251111</v>
+      </c>
+      <c r="K525">
+        <v>295385</v>
+      </c>
+      <c r="L525">
+        <v>169721</v>
+      </c>
+      <c r="M525">
+        <v>197130</v>
+      </c>
+      <c r="N525">
+        <v>122520</v>
+      </c>
+      <c r="O525">
+        <v>298027</v>
+      </c>
+      <c r="P525">
+        <v>251664</v>
+      </c>
+      <c r="R525" t="s">
+        <v>113</v>
+      </c>
+      <c r="S525">
+        <v>111482</v>
+      </c>
+      <c r="T525" s="5">
+        <v>135569</v>
+      </c>
+      <c r="U525" s="5">
+        <v>162367</v>
+      </c>
+      <c r="V525" s="5">
+        <v>184117</v>
+      </c>
+      <c r="W525" s="5">
+        <v>204438</v>
+      </c>
+      <c r="X525" s="5">
+        <v>151433</v>
+      </c>
+      <c r="Y525">
+        <v>178481</v>
+      </c>
+      <c r="Z525" s="5">
+        <v>199389</v>
+      </c>
+      <c r="AA525" s="5">
+        <v>222700</v>
+      </c>
+      <c r="AB525" s="5">
+        <v>248055</v>
+      </c>
+      <c r="AC525" s="5">
+        <v>279887</v>
+      </c>
+      <c r="AD525" s="5">
+        <v>317941</v>
+      </c>
+      <c r="AE525" s="5">
+        <v>348582</v>
+      </c>
+    </row>
+    <row r="526" spans="1:31">
+      <c r="A526" t="s">
+        <v>112</v>
+      </c>
+      <c r="B526">
+        <v>110212</v>
+      </c>
+      <c r="C526"/>
+      <c r="D526">
+        <v>246957</v>
+      </c>
+      <c r="E526">
+        <v>137010</v>
+      </c>
+      <c r="F526">
+        <v>191553</v>
+      </c>
+      <c r="G526">
+        <v>245668</v>
+      </c>
+      <c r="H526"/>
+      <c r="I526">
+        <v>243404</v>
+      </c>
+      <c r="J526">
+        <v>354606</v>
+      </c>
+      <c r="K526">
+        <v>422222</v>
+      </c>
+      <c r="L526">
+        <v>326805</v>
+      </c>
+      <c r="M526">
+        <v>366911</v>
+      </c>
+      <c r="N526">
+        <v>152874</v>
+      </c>
+      <c r="O526">
+        <v>374175</v>
+      </c>
+      <c r="P526">
+        <v>374045</v>
+      </c>
+      <c r="R526" t="s">
+        <v>39</v>
+      </c>
+      <c r="S526">
+        <v>478941</v>
+      </c>
+      <c r="T526" s="5">
+        <v>501382</v>
+      </c>
+      <c r="U526" s="5">
+        <v>688282</v>
+      </c>
+      <c r="V526" s="5">
+        <v>869772</v>
+      </c>
+      <c r="W526" s="5">
+        <v>1059185</v>
+      </c>
+      <c r="X526" s="5">
+        <v>568718</v>
+      </c>
+      <c r="Y526" s="5">
+        <v>762020</v>
+      </c>
+      <c r="Z526" s="5">
+        <v>937491</v>
+      </c>
+      <c r="AA526" s="5">
+        <v>1125869</v>
+      </c>
+      <c r="AB526" s="5">
+        <v>1305518</v>
+      </c>
+      <c r="AC526" s="5">
+        <v>1479005</v>
+      </c>
+      <c r="AD526" s="5">
+        <v>1655186</v>
+      </c>
+      <c r="AE526" s="5">
+        <v>1826299</v>
+      </c>
+    </row>
+    <row r="527" spans="1:31">
+      <c r="A527" t="s">
+        <v>114</v>
+      </c>
+      <c r="B527">
+        <v>77776</v>
+      </c>
+      <c r="C527"/>
+      <c r="D527">
+        <v>108114</v>
+      </c>
+      <c r="E527">
+        <v>90519</v>
+      </c>
+      <c r="F527">
+        <v>103716</v>
+      </c>
+      <c r="G527">
+        <v>123441</v>
+      </c>
+      <c r="H527"/>
+      <c r="I527">
+        <v>123536</v>
+      </c>
+      <c r="J527">
+        <v>149543</v>
+      </c>
+      <c r="K527">
+        <v>172106</v>
+      </c>
+      <c r="L527">
+        <v>133610</v>
+      </c>
+      <c r="M527">
+        <v>142682</v>
+      </c>
+      <c r="N527">
+        <v>113525</v>
+      </c>
+      <c r="O527">
+        <v>183448</v>
+      </c>
+      <c r="P527">
+        <v>162524</v>
+      </c>
+      <c r="R527" t="s">
+        <v>41</v>
+      </c>
+      <c r="S527">
+        <v>1660975</v>
+      </c>
+      <c r="T527" s="5">
+        <v>2836147</v>
+      </c>
+      <c r="U527">
+        <v>4121221</v>
+      </c>
+      <c r="V527" s="5">
+        <v>4834630</v>
+      </c>
+      <c r="W527">
+        <v>5403920</v>
+      </c>
+      <c r="X527">
+        <v>2874662</v>
+      </c>
+      <c r="Y527" s="5">
+        <v>4181751</v>
+      </c>
+      <c r="Z527">
+        <v>5566122</v>
+      </c>
+      <c r="AA527" s="5">
+        <v>6770741</v>
+      </c>
+      <c r="AB527" s="5">
+        <v>7792846</v>
+      </c>
+      <c r="AC527" s="5">
+        <v>8698745</v>
+      </c>
+      <c r="AD527" s="5">
+        <v>9358374</v>
+      </c>
+      <c r="AE527" s="5">
+        <v>9992787</v>
+      </c>
+    </row>
+    <row r="528" spans="1:16">
+      <c r="A528" t="s">
+        <v>88</v>
+      </c>
+      <c r="B528">
+        <v>86621.3065395095</v>
+      </c>
+      <c r="C528"/>
+      <c r="D528">
+        <v>125410</v>
+      </c>
+      <c r="E528">
+        <v>102649</v>
+      </c>
+      <c r="F528">
+        <v>114746</v>
+      </c>
+      <c r="G528">
+        <v>132780</v>
+      </c>
+      <c r="H528"/>
+      <c r="I528">
+        <v>132838.75732788</v>
+      </c>
+      <c r="J528">
+        <v>177962.836400818</v>
+      </c>
+      <c r="K528">
+        <v>207682.924335378</v>
+      </c>
+      <c r="L528">
+        <v>144506.244035446</v>
+      </c>
+      <c r="M528">
+        <v>158883.016359918</v>
+      </c>
+      <c r="N528">
+        <v>120117.858895705</v>
+      </c>
+      <c r="O528">
+        <v>228044.431492842</v>
+      </c>
+      <c r="P528">
+        <v>185884.700068166</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9">
+      <c r="A529" t="s">
+        <v>89</v>
+      </c>
+      <c r="B529">
+        <v>0.2</v>
+      </c>
+      <c r="C529"/>
+      <c r="D529">
+        <v>0.2</v>
+      </c>
+      <c r="E529"/>
+      <c r="F529"/>
+      <c r="G529"/>
+      <c r="H529"/>
+      <c r="I529">
+        <v>0.2665</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1">
+      <c r="A531" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="532" spans="1:16">
+      <c r="A532" t="s">
+        <v>87</v>
+      </c>
+      <c r="B532">
+        <v>83191</v>
+      </c>
+      <c r="C532"/>
+      <c r="D532">
+        <v>117296</v>
+      </c>
+      <c r="E532">
+        <v>104974</v>
+      </c>
+      <c r="F532">
+        <v>136425</v>
+      </c>
+      <c r="G532">
+        <v>127291</v>
+      </c>
+      <c r="H532"/>
+      <c r="I532">
+        <v>167851</v>
+      </c>
+      <c r="J532">
+        <v>198567</v>
+      </c>
+      <c r="K532">
+        <v>122349</v>
+      </c>
+      <c r="L532">
+        <v>134966</v>
+      </c>
+      <c r="M532">
+        <v>176866</v>
+      </c>
+      <c r="N532">
+        <v>155815</v>
+      </c>
+      <c r="O532">
+        <v>223840</v>
+      </c>
+      <c r="P532">
+        <v>145366</v>
+      </c>
+    </row>
+    <row r="533" spans="1:16">
+      <c r="A533" t="s">
+        <v>110</v>
+      </c>
+      <c r="B533">
+        <v>92216</v>
+      </c>
+      <c r="C533"/>
+      <c r="D533">
+        <v>120399</v>
+      </c>
+      <c r="E533">
+        <v>107533</v>
+      </c>
+      <c r="F533">
+        <v>140019</v>
+      </c>
+      <c r="G533">
+        <v>209411</v>
+      </c>
+      <c r="H533"/>
+      <c r="I533">
+        <v>252504</v>
+      </c>
+      <c r="J533">
+        <v>296188</v>
+      </c>
+      <c r="K533">
+        <v>151655</v>
+      </c>
+      <c r="L533">
+        <v>137267</v>
+      </c>
+      <c r="M533">
+        <v>265696</v>
+      </c>
+      <c r="N533">
+        <v>167153</v>
+      </c>
+      <c r="O533">
+        <v>309328</v>
+      </c>
+      <c r="P533">
+        <v>238863</v>
+      </c>
+    </row>
+    <row r="534" spans="1:16">
+      <c r="A534" t="s">
+        <v>112</v>
+      </c>
+      <c r="B534">
+        <v>102782</v>
+      </c>
+      <c r="C534"/>
+      <c r="D534">
+        <v>146153</v>
+      </c>
+      <c r="E534">
+        <v>137644</v>
+      </c>
+      <c r="F534">
+        <v>245000</v>
+      </c>
+      <c r="G534">
+        <v>257223</v>
+      </c>
+      <c r="H534"/>
+      <c r="I534">
+        <v>354534</v>
+      </c>
+      <c r="J534">
+        <v>387219</v>
+      </c>
+      <c r="K534">
+        <v>156322</v>
+      </c>
+      <c r="L534">
+        <v>276504</v>
+      </c>
+      <c r="M534">
+        <v>363770</v>
+      </c>
+      <c r="N534">
+        <v>317340</v>
+      </c>
+      <c r="O534">
+        <v>391179</v>
+      </c>
+      <c r="P534">
+        <v>358058</v>
+      </c>
+    </row>
+    <row r="535" spans="1:16">
+      <c r="A535" t="s">
+        <v>114</v>
+      </c>
+      <c r="B535">
+        <v>75079</v>
+      </c>
+      <c r="C535"/>
+      <c r="D535">
+        <v>105282</v>
+      </c>
+      <c r="E535">
+        <v>90140</v>
+      </c>
+      <c r="F535">
+        <v>128766</v>
+      </c>
+      <c r="G535">
+        <v>114342</v>
+      </c>
+      <c r="H535"/>
+      <c r="I535">
+        <v>155574</v>
+      </c>
+      <c r="J535">
+        <v>178011</v>
+      </c>
+      <c r="K535">
+        <v>112204</v>
+      </c>
+      <c r="L535">
+        <v>124607</v>
+      </c>
+      <c r="M535">
+        <v>163084</v>
+      </c>
+      <c r="N535">
+        <v>144280</v>
+      </c>
+      <c r="O535">
+        <v>193601</v>
+      </c>
+      <c r="P535">
+        <v>134302</v>
+      </c>
+    </row>
+    <row r="536" spans="1:16">
+      <c r="A536" t="s">
+        <v>88</v>
+      </c>
+      <c r="B536">
+        <v>84060.2901907357</v>
+      </c>
+      <c r="C536"/>
+      <c r="D536">
+        <v>116659.58106267</v>
+      </c>
+      <c r="E536">
+        <v>104755.717983651</v>
+      </c>
+      <c r="F536">
+        <v>137664.950920245</v>
+      </c>
+      <c r="G536">
+        <v>132489.607629427</v>
+      </c>
+      <c r="H536"/>
+      <c r="I536">
+        <v>181405.672119972</v>
+      </c>
+      <c r="J536">
+        <v>211940.555555555</v>
+      </c>
+      <c r="K536">
+        <v>124237.941376959</v>
+      </c>
+      <c r="L536">
+        <v>135164.224948875</v>
+      </c>
+      <c r="M536">
+        <v>193378.511929107</v>
+      </c>
+      <c r="N536">
+        <v>159055.980231765</v>
+      </c>
+      <c r="O536">
+        <v>236303.333333333</v>
+      </c>
+      <c r="P536">
+        <v>153479.341513292</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9">
+      <c r="A537" t="s">
+        <v>89</v>
+      </c>
+      <c r="B537">
+        <v>0.2</v>
+      </c>
+      <c r="C537"/>
+      <c r="D537">
+        <v>0.2</v>
+      </c>
+      <c r="E537">
+        <v>0.2</v>
+      </c>
+      <c r="F537">
+        <v>0.27</v>
+      </c>
+      <c r="G537">
+        <v>0.2</v>
+      </c>
+      <c r="H537"/>
+      <c r="I537">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1">
+      <c r="A539" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="540" spans="1:16">
+      <c r="A540" t="s">
+        <v>87</v>
+      </c>
+      <c r="B540">
+        <v>111482</v>
+      </c>
+      <c r="C540"/>
+      <c r="D540">
+        <v>204438</v>
+      </c>
+      <c r="E540">
+        <v>135569</v>
+      </c>
+      <c r="F540">
+        <v>162367</v>
+      </c>
+      <c r="G540">
+        <v>184117</v>
+      </c>
+      <c r="H540"/>
+      <c r="I540">
+        <v>279887</v>
+      </c>
+      <c r="J540">
+        <v>178481</v>
+      </c>
+      <c r="K540">
+        <v>248055</v>
+      </c>
+      <c r="L540">
+        <v>348582</v>
+      </c>
+      <c r="M540">
+        <v>317941</v>
+      </c>
+      <c r="N540">
+        <v>199389</v>
+      </c>
+      <c r="O540">
+        <v>222700</v>
+      </c>
+      <c r="P540">
+        <v>151433</v>
+      </c>
+    </row>
+    <row r="541" spans="1:16">
+      <c r="A541" t="s">
+        <v>110</v>
+      </c>
+      <c r="B541">
+        <v>122227</v>
+      </c>
+      <c r="C541"/>
+      <c r="D541">
+        <v>209637</v>
+      </c>
+      <c r="E541">
+        <v>138649</v>
+      </c>
+      <c r="F541">
+        <v>165821</v>
+      </c>
+      <c r="G541">
+        <v>188587</v>
+      </c>
+      <c r="H541"/>
+      <c r="I541">
+        <v>380582</v>
+      </c>
+      <c r="J541">
+        <v>181803</v>
+      </c>
+      <c r="K541">
+        <v>311468</v>
+      </c>
+      <c r="L541">
+        <v>423053</v>
+      </c>
+      <c r="M541">
+        <v>400638</v>
+      </c>
+      <c r="N541">
+        <v>203805</v>
+      </c>
+      <c r="O541">
+        <v>228678</v>
+      </c>
+      <c r="P541">
+        <v>154196</v>
+      </c>
+    </row>
+    <row r="542" spans="1:16">
+      <c r="A542" t="s">
+        <v>112</v>
+      </c>
+      <c r="B542">
+        <v>145787</v>
+      </c>
+      <c r="C542"/>
+      <c r="D542">
+        <v>350493</v>
+      </c>
+      <c r="E542">
+        <v>175854</v>
+      </c>
+      <c r="F542">
+        <v>199664</v>
+      </c>
+      <c r="G542">
+        <v>217797</v>
+      </c>
+      <c r="H542"/>
+      <c r="I542">
+        <v>469815</v>
+      </c>
+      <c r="J542">
+        <v>217985</v>
+      </c>
+      <c r="K542">
+        <v>445824</v>
+      </c>
+      <c r="L542">
+        <v>494085</v>
+      </c>
+      <c r="M542">
+        <v>499489</v>
+      </c>
+      <c r="N542">
+        <v>241217</v>
+      </c>
+      <c r="O542">
+        <v>264327</v>
+      </c>
+      <c r="P542">
+        <v>193066</v>
+      </c>
+    </row>
+    <row r="543" spans="1:16">
+      <c r="A543" t="s">
+        <v>114</v>
+      </c>
+      <c r="B543">
+        <v>105486</v>
+      </c>
+      <c r="C543"/>
+      <c r="D543">
+        <v>196028</v>
+      </c>
+      <c r="E543">
+        <v>127276</v>
+      </c>
+      <c r="F543">
+        <v>149223</v>
+      </c>
+      <c r="G543">
+        <v>172753</v>
+      </c>
+      <c r="H543"/>
+      <c r="I543">
+        <v>255036</v>
+      </c>
+      <c r="J543">
+        <v>163219</v>
+      </c>
+      <c r="K543">
+        <v>230077</v>
+      </c>
+      <c r="L543">
+        <v>307391</v>
+      </c>
+      <c r="M543">
+        <v>280961</v>
+      </c>
+      <c r="N543">
+        <v>184533</v>
+      </c>
+      <c r="O543">
+        <v>210955</v>
+      </c>
+      <c r="P543">
+        <v>137186</v>
+      </c>
+    </row>
+    <row r="544" spans="1:16">
+      <c r="A544" t="s">
+        <v>88</v>
+      </c>
+      <c r="B544">
+        <v>114216.561307901</v>
+      </c>
+      <c r="C544"/>
+      <c r="D544">
+        <v>204923.602179836</v>
+      </c>
+      <c r="E544">
+        <v>135487.39373297</v>
+      </c>
+      <c r="F544">
+        <v>162135.010217983</v>
+      </c>
+      <c r="G544">
+        <v>183978.160762942</v>
+      </c>
+      <c r="H544"/>
+      <c r="I544">
+        <v>296476.492842535</v>
+      </c>
+      <c r="J544">
+        <v>178196.537150647</v>
+      </c>
+      <c r="K544">
+        <v>255917.465576005</v>
+      </c>
+      <c r="L544">
+        <v>355709.179277436</v>
+      </c>
+      <c r="M544">
+        <v>329002.111111111</v>
+      </c>
+      <c r="N544">
+        <v>199349.374914792</v>
+      </c>
+      <c r="O544">
+        <v>222906.57123381</v>
+      </c>
+      <c r="P544">
+        <v>151010.946830265</v>
+      </c>
+    </row>
+    <row r="545" spans="1:9">
+      <c r="A545" t="s">
+        <v>89</v>
+      </c>
+      <c r="B545">
+        <v>0.2</v>
+      </c>
+      <c r="C545"/>
+      <c r="D545">
+        <v>0.2</v>
+      </c>
+      <c r="I545">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1">
+      <c r="A547" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="548" spans="1:16">
+      <c r="A548" t="s">
+        <v>87</v>
+      </c>
+      <c r="B548">
+        <v>478941</v>
+      </c>
+      <c r="C548"/>
+      <c r="D548">
+        <v>688282</v>
+      </c>
+      <c r="E548">
+        <v>1059185</v>
+      </c>
+      <c r="F548">
+        <v>501382</v>
+      </c>
+      <c r="G548">
+        <v>869772</v>
+      </c>
+      <c r="H548"/>
+      <c r="I548">
+        <v>1826299</v>
+      </c>
+      <c r="J548">
+        <v>937491</v>
+      </c>
+      <c r="K548">
+        <v>1305518</v>
+      </c>
+      <c r="L548">
+        <v>1479005</v>
+      </c>
+      <c r="M548">
+        <v>1125869</v>
+      </c>
+      <c r="N548">
+        <v>762020</v>
+      </c>
+      <c r="O548">
+        <v>568718</v>
+      </c>
+      <c r="P548">
+        <v>1655186</v>
+      </c>
+    </row>
+    <row r="549" spans="1:16">
+      <c r="A549" t="s">
+        <v>110</v>
+      </c>
+      <c r="B549">
+        <v>488410</v>
+      </c>
+      <c r="C549"/>
+      <c r="D549">
+        <v>707348</v>
+      </c>
+      <c r="E549">
+        <v>1075145</v>
+      </c>
+      <c r="F549">
+        <v>505475</v>
+      </c>
+      <c r="G549">
+        <v>886963</v>
+      </c>
+      <c r="H549"/>
+      <c r="I549">
+        <v>1902450</v>
+      </c>
+      <c r="J549">
+        <v>960349</v>
+      </c>
+      <c r="K549">
+        <v>1331197</v>
+      </c>
+      <c r="L549">
+        <v>1519331</v>
+      </c>
+      <c r="M549">
+        <v>1146899</v>
+      </c>
+      <c r="N549">
+        <v>779860</v>
+      </c>
+      <c r="O549">
+        <v>576308</v>
+      </c>
+      <c r="P549">
+        <v>1706232</v>
+      </c>
+    </row>
+    <row r="550" spans="1:16">
+      <c r="A550" t="s">
+        <v>112</v>
+      </c>
+      <c r="B550">
+        <v>912924</v>
+      </c>
+      <c r="C550"/>
+      <c r="D550">
+        <v>1151105</v>
+      </c>
+      <c r="E550">
+        <v>1485630</v>
+      </c>
+      <c r="F550">
+        <v>936351</v>
+      </c>
+      <c r="G550">
+        <v>1291693</v>
+      </c>
+      <c r="H550"/>
+      <c r="I550">
+        <v>2296110</v>
+      </c>
+      <c r="J550">
+        <v>1510123</v>
+      </c>
+      <c r="K550">
+        <v>1976281</v>
+      </c>
+      <c r="L550">
+        <v>2172073</v>
+      </c>
+      <c r="M550">
+        <v>1776085</v>
+      </c>
+      <c r="N550">
+        <v>1249479</v>
+      </c>
+      <c r="O550">
+        <v>1061214</v>
+      </c>
+      <c r="P550">
+        <v>2170783</v>
+      </c>
+    </row>
+    <row r="551" spans="1:16">
+      <c r="A551" t="s">
+        <v>114</v>
+      </c>
+      <c r="B551">
+        <v>463310</v>
+      </c>
+      <c r="C551"/>
+      <c r="D551">
+        <v>673166</v>
+      </c>
+      <c r="E551">
+        <v>1024113</v>
+      </c>
+      <c r="F551">
+        <v>493647</v>
+      </c>
+      <c r="G551">
+        <v>849151</v>
+      </c>
+      <c r="H551"/>
+      <c r="I551">
+        <v>1778055</v>
+      </c>
+      <c r="J551">
+        <v>919172</v>
+      </c>
+      <c r="K551">
+        <v>1264990</v>
+      </c>
+      <c r="L551">
+        <v>1431468</v>
+      </c>
+      <c r="M551">
+        <v>1082171</v>
+      </c>
+      <c r="N551">
+        <v>734304</v>
+      </c>
+      <c r="O551">
+        <v>549400</v>
+      </c>
+      <c r="P551">
+        <v>1606716</v>
+      </c>
+    </row>
+    <row r="552" spans="1:16">
+      <c r="A552" t="s">
+        <v>88</v>
+      </c>
+      <c r="B552">
+        <v>479196.34468664</v>
+      </c>
+      <c r="C552"/>
+      <c r="D552">
+        <v>690911.984332425</v>
+      </c>
+      <c r="E552">
+        <v>1057329.97000681</v>
+      </c>
+      <c r="F552">
+        <v>501853.076975476</v>
+      </c>
+      <c r="G552">
+        <v>871089.24948875</v>
+      </c>
+      <c r="H552"/>
+      <c r="I552">
+        <v>1840414.8117326</v>
+      </c>
+      <c r="J552">
+        <v>940022.75119291</v>
+      </c>
+      <c r="K552">
+        <v>1305879.53646898</v>
+      </c>
+      <c r="L552">
+        <v>1482538.70688479</v>
+      </c>
+      <c r="M552">
+        <v>1125974.76687116</v>
+      </c>
+      <c r="N552">
+        <v>763326.554192229</v>
+      </c>
+      <c r="O552">
+        <v>569399.90184049</v>
+      </c>
+      <c r="P552">
+        <v>1660845.66848567</v>
+      </c>
+    </row>
+    <row r="553" spans="1:16">
+      <c r="A553" t="s">
+        <v>89</v>
+      </c>
+      <c r="B553">
+        <v>0.2</v>
+      </c>
+      <c r="C553"/>
+      <c r="D553">
+        <v>0.2</v>
+      </c>
+      <c r="E553">
+        <v>0.27</v>
+      </c>
+      <c r="F553">
+        <v>0.2</v>
+      </c>
+      <c r="G553">
+        <v>0.27</v>
+      </c>
+      <c r="H553"/>
+      <c r="I553">
+        <v>0.33</v>
+      </c>
+      <c r="J553">
+        <v>0.27</v>
+      </c>
+      <c r="K553">
+        <v>0.27</v>
+      </c>
+      <c r="L553">
+        <v>0.27</v>
+      </c>
+      <c r="M553">
+        <v>0.27</v>
+      </c>
+      <c r="N553">
+        <v>0.27</v>
+      </c>
+      <c r="O553">
+        <v>0.27</v>
+      </c>
+      <c r="P553">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="556" spans="1:16">
+      <c r="A556" t="s">
+        <v>87</v>
+      </c>
+      <c r="B556">
+        <v>1660975</v>
+      </c>
+      <c r="C556"/>
+      <c r="D556">
+        <v>4834630</v>
+      </c>
+      <c r="E556">
+        <v>4121221</v>
+      </c>
+      <c r="F556">
+        <v>2836147</v>
+      </c>
+      <c r="G556">
+        <v>5403920</v>
+      </c>
+      <c r="H556"/>
+      <c r="I556">
+        <v>2874662</v>
+      </c>
+      <c r="J556">
+        <v>9992787</v>
+      </c>
+      <c r="K556">
+        <v>5566122</v>
+      </c>
+      <c r="L556">
+        <v>8698745</v>
+      </c>
+      <c r="M556">
+        <v>9358374</v>
+      </c>
+      <c r="N556">
+        <v>4181751</v>
+      </c>
+      <c r="O556">
+        <v>7792846</v>
+      </c>
+      <c r="P556">
+        <v>6770741</v>
+      </c>
+    </row>
+    <row r="557" spans="1:16">
+      <c r="A557" t="s">
+        <v>110</v>
+      </c>
+      <c r="B557">
+        <v>1677019</v>
+      </c>
+      <c r="C557"/>
+      <c r="D557">
+        <v>4887058</v>
+      </c>
+      <c r="E557">
+        <v>4181022</v>
+      </c>
+      <c r="F557">
+        <v>2857208</v>
+      </c>
+      <c r="G557">
+        <v>5453817</v>
+      </c>
+      <c r="H557"/>
+      <c r="I557">
+        <v>2897545</v>
+      </c>
+      <c r="J557">
+        <v>10169284</v>
+      </c>
+      <c r="K557">
+        <v>5739792</v>
+      </c>
+      <c r="L557">
+        <v>8881771</v>
+      </c>
+      <c r="M557">
+        <v>9527509</v>
+      </c>
+      <c r="N557">
+        <v>4277445</v>
+      </c>
+      <c r="O557">
+        <v>7986138</v>
+      </c>
+      <c r="P557">
+        <v>6965194</v>
+      </c>
+    </row>
+    <row r="558" spans="1:16">
+      <c r="A558" t="s">
+        <v>112</v>
+      </c>
+      <c r="B558">
+        <v>3578307</v>
+      </c>
+      <c r="C558"/>
+      <c r="D558">
+        <v>8182074</v>
+      </c>
+      <c r="E558">
+        <v>7454422</v>
+      </c>
+      <c r="F558">
+        <v>6440229</v>
+      </c>
+      <c r="G558">
+        <v>7581462</v>
+      </c>
+      <c r="H558"/>
+      <c r="I558">
+        <v>13249160</v>
+      </c>
+      <c r="J558">
+        <v>15381541</v>
+      </c>
+      <c r="K558">
+        <v>10654921</v>
+      </c>
+      <c r="L558">
+        <v>13230884</v>
+      </c>
+      <c r="M558">
+        <v>12325578</v>
+      </c>
+      <c r="N558">
+        <v>10379943</v>
+      </c>
+      <c r="O558">
+        <v>12410105</v>
+      </c>
+      <c r="P558">
+        <v>10464931</v>
+      </c>
+    </row>
+    <row r="559" spans="1:16">
+      <c r="A559" t="s">
+        <v>114</v>
+      </c>
+      <c r="B559">
+        <v>1640831</v>
+      </c>
+      <c r="C559"/>
+      <c r="D559">
+        <v>4295414</v>
+      </c>
+      <c r="E559">
+        <v>3792965</v>
+      </c>
+      <c r="F559">
+        <v>2579579</v>
+      </c>
+      <c r="G559">
+        <v>5031321</v>
+      </c>
+      <c r="H559"/>
+      <c r="I559">
+        <v>2613307</v>
+      </c>
+      <c r="J559">
+        <v>9661385</v>
+      </c>
+      <c r="K559">
+        <v>4541537</v>
+      </c>
+      <c r="L559">
+        <v>8031042</v>
+      </c>
+      <c r="M559">
+        <v>8900798</v>
+      </c>
+      <c r="N559">
+        <v>3845670</v>
+      </c>
+      <c r="O559">
+        <v>6926705</v>
+      </c>
+      <c r="P559">
+        <v>5913536</v>
+      </c>
+    </row>
+    <row r="560" spans="1:16">
+      <c r="A560" t="s">
+        <v>88</v>
+      </c>
+      <c r="B560">
+        <v>1664839.576294</v>
+      </c>
+      <c r="C560"/>
+      <c r="D560">
+        <v>4841465.85217983</v>
+      </c>
+      <c r="E560">
+        <v>4127607.83446866</v>
+      </c>
+      <c r="F560">
+        <v>2842726.52043596</v>
+      </c>
+      <c r="G560">
+        <v>5410062.19891</v>
+      </c>
+      <c r="H560"/>
+      <c r="I560">
+        <v>2891245.60804362</v>
+      </c>
+      <c r="J560">
+        <v>10027327.712824</v>
+      </c>
+      <c r="K560">
+        <v>5585760.68916155</v>
+      </c>
+      <c r="L560">
+        <v>8714338.13428766</v>
+      </c>
+      <c r="M560">
+        <v>9381208.34038199</v>
+      </c>
+      <c r="N560">
+        <v>4195305.90320381</v>
+      </c>
+      <c r="O560">
+        <v>7812389.93251533</v>
+      </c>
+      <c r="P560">
+        <v>6790817.23517382</v>
+      </c>
+    </row>
+    <row r="561" spans="1:16">
+      <c r="A561" t="s">
+        <v>89</v>
+      </c>
+      <c r="B561">
+        <v>0.2</v>
+      </c>
+      <c r="C561"/>
+      <c r="D561">
+        <v>0.2</v>
+      </c>
+      <c r="I561">
+        <v>0.27</v>
+      </c>
+      <c r="J561">
+        <v>0.33</v>
+      </c>
+      <c r="K561">
+        <v>0.27</v>
+      </c>
+      <c r="L561">
+        <v>0.27</v>
+      </c>
+      <c r="M561">
+        <v>0.33</v>
+      </c>
+      <c r="N561">
+        <v>0.27</v>
+      </c>
+      <c r="O561">
+        <v>0.27</v>
+      </c>
+      <c r="P561">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563" t="s">
+        <v>73</v>
+      </c>
+      <c r="B563" t="s">
+        <v>145</v>
+      </c>
+      <c r="C563" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="564" spans="1:18">
+      <c r="A564" t="s">
+        <v>108</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="C564">
+        <v>2</v>
+      </c>
+      <c r="D564">
+        <v>3</v>
+      </c>
+      <c r="E564">
+        <v>4</v>
+      </c>
+      <c r="F564">
+        <v>5</v>
+      </c>
+      <c r="G564">
+        <v>6</v>
+      </c>
+      <c r="H564">
+        <v>7</v>
+      </c>
+      <c r="I564">
+        <v>8</v>
+      </c>
+      <c r="J564" t="s">
+        <v>73</v>
+      </c>
+      <c r="K564">
+        <v>1</v>
+      </c>
+      <c r="L564">
+        <v>2</v>
+      </c>
+      <c r="M564">
+        <v>3</v>
+      </c>
+      <c r="N564">
+        <v>4</v>
+      </c>
+      <c r="O564">
+        <v>5</v>
+      </c>
+      <c r="P564">
+        <v>6</v>
+      </c>
+      <c r="Q564">
+        <v>7</v>
+      </c>
+      <c r="R564">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="565" spans="1:18">
+      <c r="A565" t="s">
+        <v>87</v>
+      </c>
+      <c r="B565">
+        <v>129210</v>
+      </c>
+      <c r="C565">
+        <v>129910</v>
+      </c>
+      <c r="D565">
+        <v>136480</v>
+      </c>
+      <c r="E565">
+        <v>144644</v>
+      </c>
+      <c r="F565">
+        <v>152602</v>
+      </c>
+      <c r="G565">
+        <v>159121</v>
+      </c>
+      <c r="H565">
+        <v>178898</v>
+      </c>
+      <c r="I565">
+        <v>198702</v>
+      </c>
+      <c r="J565" t="s">
+        <v>109</v>
+      </c>
+      <c r="K565">
+        <v>129210</v>
+      </c>
+      <c r="L565">
+        <v>129910</v>
+      </c>
+      <c r="M565">
+        <v>136480</v>
+      </c>
+      <c r="N565">
+        <v>144644</v>
+      </c>
+      <c r="O565">
+        <v>152602</v>
+      </c>
+      <c r="P565">
+        <v>159121</v>
+      </c>
+      <c r="Q565">
+        <v>178898</v>
+      </c>
+      <c r="R565">
+        <v>198702</v>
+      </c>
+    </row>
+    <row r="566" spans="1:18">
+      <c r="A566" t="s">
+        <v>110</v>
+      </c>
+      <c r="B566">
+        <v>132451</v>
+      </c>
+      <c r="C566">
+        <v>135268</v>
+      </c>
+      <c r="D566">
+        <v>175652</v>
+      </c>
+      <c r="E566">
+        <v>198155</v>
+      </c>
+      <c r="F566">
+        <v>260347</v>
+      </c>
+      <c r="G566">
+        <v>256169</v>
+      </c>
+      <c r="H566">
+        <v>278326</v>
+      </c>
+      <c r="I566">
+        <v>280056</v>
+      </c>
+      <c r="J566" t="s">
+        <v>111</v>
+      </c>
+      <c r="K566">
+        <v>129210</v>
+      </c>
+      <c r="L566">
+        <v>129910</v>
+      </c>
+      <c r="M566">
+        <v>136480</v>
+      </c>
+      <c r="N566">
+        <v>144644</v>
+      </c>
+      <c r="O566">
+        <v>152602</v>
+      </c>
+      <c r="P566">
+        <v>159121</v>
+      </c>
+      <c r="Q566">
+        <v>178898</v>
+      </c>
+      <c r="R566">
+        <v>198702</v>
+      </c>
+    </row>
+    <row r="567" spans="1:18">
+      <c r="A567" t="s">
+        <v>112</v>
+      </c>
+      <c r="B567">
+        <v>166107</v>
+      </c>
+      <c r="C567">
+        <v>182395</v>
+      </c>
+      <c r="D567">
+        <v>349324</v>
+      </c>
+      <c r="E567">
+        <v>359108</v>
+      </c>
+      <c r="F567">
+        <v>366888</v>
+      </c>
+      <c r="G567">
+        <v>361721</v>
+      </c>
+      <c r="H567">
+        <v>384979</v>
+      </c>
+      <c r="I567">
+        <v>347276</v>
+      </c>
+      <c r="J567" t="s">
+        <v>113</v>
+      </c>
+      <c r="K567">
+        <v>229348</v>
+      </c>
+      <c r="L567">
+        <v>239657</v>
+      </c>
+      <c r="M567">
+        <v>254271</v>
+      </c>
+      <c r="N567">
+        <v>267739</v>
+      </c>
+      <c r="O567">
+        <v>280763</v>
+      </c>
+      <c r="P567">
+        <v>301513</v>
+      </c>
+      <c r="Q567">
+        <v>337479</v>
+      </c>
+      <c r="R567">
+        <v>352490</v>
+      </c>
+    </row>
+    <row r="568" spans="1:18">
+      <c r="A568" t="s">
+        <v>114</v>
+      </c>
+      <c r="B568">
+        <v>118986</v>
+      </c>
+      <c r="C568">
+        <v>123577</v>
+      </c>
+      <c r="D568">
+        <v>126832</v>
+      </c>
+      <c r="E568">
+        <v>136255</v>
+      </c>
+      <c r="F568">
+        <v>143210</v>
+      </c>
+      <c r="G568">
+        <v>152142</v>
+      </c>
+      <c r="H568">
+        <v>159005</v>
+      </c>
+      <c r="I568">
+        <v>169008</v>
+      </c>
+      <c r="J568" t="s">
+        <v>39</v>
+      </c>
+      <c r="K568">
+        <v>1741265</v>
+      </c>
+      <c r="L568">
+        <v>1759360</v>
+      </c>
+      <c r="M568">
+        <v>1795063</v>
+      </c>
+      <c r="N568">
+        <v>1834647</v>
+      </c>
+      <c r="O568">
+        <v>1880993</v>
+      </c>
+      <c r="P568">
+        <v>1971867</v>
+      </c>
+      <c r="Q568">
+        <v>2059077</v>
+      </c>
+      <c r="R568">
+        <v>2135842</v>
+      </c>
+    </row>
+    <row r="569" spans="1:18">
+      <c r="A569" t="s">
+        <v>88</v>
+      </c>
+      <c r="B569">
+        <v>129603.054495912</v>
+      </c>
+      <c r="C569">
+        <v>130720.364689843</v>
+      </c>
+      <c r="D569">
+        <v>142089.198364008</v>
+      </c>
+      <c r="E569">
+        <v>152262.109747784</v>
+      </c>
+      <c r="F569">
+        <v>172172.752556237</v>
+      </c>
+      <c r="G569">
+        <v>178324.010906612</v>
+      </c>
+      <c r="H569">
+        <v>192875.281526925</v>
+      </c>
+      <c r="I569">
+        <v>210564.24335378</v>
+      </c>
+      <c r="J569" t="s">
+        <v>41</v>
+      </c>
+      <c r="K569" s="5">
+        <v>13128142</v>
+      </c>
+      <c r="L569" s="5">
+        <v>14787565</v>
+      </c>
+      <c r="M569" s="5">
+        <v>16306991</v>
+      </c>
+      <c r="N569" s="5">
+        <v>17837122</v>
+      </c>
+      <c r="O569" s="5">
+        <v>19351008</v>
+      </c>
+      <c r="P569" s="5">
+        <v>20870336</v>
+      </c>
+      <c r="Q569" s="5">
+        <v>22466491</v>
+      </c>
+      <c r="R569" s="5">
+        <v>24130887</v>
+      </c>
+    </row>
+    <row r="570" spans="1:9">
+      <c r="A570" t="s">
+        <v>89</v>
+      </c>
+      <c r="B570">
+        <v>0.2</v>
+      </c>
+      <c r="C570">
+        <v>0.27</v>
+      </c>
+      <c r="D570">
+        <v>0.27</v>
+      </c>
+      <c r="E570">
+        <v>0.27</v>
+      </c>
+      <c r="F570">
+        <v>0.27</v>
+      </c>
+      <c r="G570">
+        <v>0.27</v>
+      </c>
+      <c r="H570">
+        <v>0.27</v>
+      </c>
+      <c r="I570">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="573" spans="1:9">
+      <c r="A573" t="s">
+        <v>87</v>
+      </c>
+      <c r="B573">
+        <v>129210</v>
+      </c>
+      <c r="C573">
+        <v>129910</v>
+      </c>
+      <c r="D573">
+        <v>136480</v>
+      </c>
+      <c r="E573">
+        <v>144644</v>
+      </c>
+      <c r="F573">
+        <v>152602</v>
+      </c>
+      <c r="G573">
+        <v>159121</v>
+      </c>
+      <c r="H573">
+        <v>178898</v>
+      </c>
+      <c r="I573">
+        <v>198702</v>
+      </c>
+    </row>
+    <row r="574" spans="1:9">
+      <c r="A574" t="s">
+        <v>110</v>
+      </c>
+      <c r="B574">
+        <v>132451</v>
+      </c>
+      <c r="C574">
+        <v>135268</v>
+      </c>
+      <c r="D574">
+        <v>175652</v>
+      </c>
+      <c r="E574">
+        <v>198155</v>
+      </c>
+      <c r="F574">
+        <v>260347</v>
+      </c>
+      <c r="G574">
+        <v>256169</v>
+      </c>
+      <c r="H574">
+        <v>278326</v>
+      </c>
+      <c r="I574">
+        <v>280056</v>
+      </c>
+    </row>
+    <row r="575" spans="1:9">
+      <c r="A575" t="s">
+        <v>112</v>
+      </c>
+      <c r="B575">
+        <v>166107</v>
+      </c>
+      <c r="C575">
+        <v>182395</v>
+      </c>
+      <c r="D575">
+        <v>349324</v>
+      </c>
+      <c r="E575">
+        <v>359108</v>
+      </c>
+      <c r="F575">
+        <v>366888</v>
+      </c>
+      <c r="G575">
+        <v>361721</v>
+      </c>
+      <c r="H575">
+        <v>384979</v>
+      </c>
+      <c r="I575">
+        <v>347276</v>
+      </c>
+    </row>
+    <row r="576" spans="1:9">
+      <c r="A576" t="s">
+        <v>114</v>
+      </c>
+      <c r="B576">
+        <v>118986</v>
+      </c>
+      <c r="C576">
+        <v>123577</v>
+      </c>
+      <c r="D576">
+        <v>126832</v>
+      </c>
+      <c r="E576">
+        <v>136255</v>
+      </c>
+      <c r="F576">
+        <v>143210</v>
+      </c>
+      <c r="G576">
+        <v>152142</v>
+      </c>
+      <c r="H576">
+        <v>159005</v>
+      </c>
+      <c r="I576">
+        <v>169008</v>
+      </c>
+    </row>
+    <row r="577" spans="1:9">
+      <c r="A577" t="s">
+        <v>88</v>
+      </c>
+      <c r="B577">
+        <v>129603.054495912</v>
+      </c>
+      <c r="C577">
+        <v>130720.364689843</v>
+      </c>
+      <c r="D577">
+        <v>142089.198364008</v>
+      </c>
+      <c r="E577">
+        <v>152262.109747784</v>
+      </c>
+      <c r="F577">
+        <v>172172.752556237</v>
+      </c>
+      <c r="G577">
+        <v>178324.010906612</v>
+      </c>
+      <c r="H577">
+        <v>192875.281526925</v>
+      </c>
+      <c r="I577">
+        <v>210564.24335378</v>
+      </c>
+    </row>
+    <row r="578" spans="1:9">
+      <c r="A578" t="s">
+        <v>89</v>
+      </c>
+      <c r="B578">
+        <v>0.27</v>
+      </c>
+      <c r="C578">
+        <v>0.27</v>
+      </c>
+      <c r="D578">
+        <v>0.27</v>
+      </c>
+      <c r="E578">
+        <v>0.27</v>
+      </c>
+      <c r="F578">
+        <v>0.27</v>
+      </c>
+      <c r="G578">
+        <v>0.33</v>
+      </c>
+      <c r="H578">
+        <v>0.33</v>
+      </c>
+      <c r="I578">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="581" spans="1:9">
+      <c r="A581" t="s">
+        <v>87</v>
+      </c>
+      <c r="B581">
+        <v>229348</v>
+      </c>
+      <c r="C581">
+        <v>239657</v>
+      </c>
+      <c r="D581">
+        <v>254271</v>
+      </c>
+      <c r="E581">
+        <v>267739</v>
+      </c>
+      <c r="F581">
+        <v>280763</v>
+      </c>
+      <c r="G581">
+        <v>301513</v>
+      </c>
+      <c r="H581">
+        <v>337479</v>
+      </c>
+      <c r="I581">
+        <v>352490</v>
+      </c>
+    </row>
+    <row r="582" spans="1:9">
+      <c r="A582" t="s">
+        <v>110</v>
+      </c>
+      <c r="B582">
+        <v>231653</v>
+      </c>
+      <c r="C582">
+        <v>242930</v>
+      </c>
+      <c r="D582">
+        <v>257933</v>
+      </c>
+      <c r="E582">
+        <v>274060</v>
+      </c>
+      <c r="F582">
+        <v>338568</v>
+      </c>
+      <c r="G582">
+        <v>395696</v>
+      </c>
+      <c r="H582">
+        <v>424364</v>
+      </c>
+      <c r="I582">
+        <v>410704</v>
+      </c>
+    </row>
+    <row r="583" spans="1:9">
+      <c r="A583" t="s">
+        <v>112</v>
+      </c>
+      <c r="B583">
+        <v>267418</v>
+      </c>
+      <c r="C583">
+        <v>447440</v>
+      </c>
+      <c r="D583">
+        <v>289129</v>
+      </c>
+      <c r="E583">
+        <v>386608</v>
+      </c>
+      <c r="F583">
+        <v>485466</v>
+      </c>
+      <c r="G583">
+        <v>511670</v>
+      </c>
+      <c r="H583">
+        <v>511722</v>
+      </c>
+      <c r="I583">
+        <v>513061</v>
+      </c>
+    </row>
+    <row r="584" spans="1:9">
+      <c r="A584" t="s">
+        <v>114</v>
+      </c>
+      <c r="B584">
+        <v>200752</v>
+      </c>
+      <c r="C584">
+        <v>213341</v>
+      </c>
+      <c r="D584">
+        <v>228808</v>
+      </c>
+      <c r="E584">
+        <v>238193</v>
+      </c>
+      <c r="F584">
+        <v>254918</v>
+      </c>
+      <c r="G584">
+        <v>278625</v>
+      </c>
+      <c r="H584">
+        <v>297838</v>
+      </c>
+      <c r="I584">
+        <v>310055</v>
+      </c>
+    </row>
+    <row r="585" spans="1:9">
+      <c r="A585" t="s">
+        <v>88</v>
+      </c>
+      <c r="B585">
+        <v>229173.501704158</v>
+      </c>
+      <c r="C585">
+        <v>240194.871847307</v>
+      </c>
+      <c r="D585">
+        <v>254107.188820722</v>
+      </c>
+      <c r="E585">
+        <v>268319.659850034</v>
+      </c>
+      <c r="F585">
+        <v>289402</v>
+      </c>
+      <c r="G585">
+        <v>317224.695978186</v>
+      </c>
+      <c r="H585">
+        <v>347757.969304229</v>
+      </c>
+      <c r="I585">
+        <v>357520.042974079</v>
+      </c>
+    </row>
+    <row r="586" spans="1:9">
+      <c r="A586" t="s">
+        <v>89</v>
+      </c>
+      <c r="B586">
+        <v>0.27</v>
+      </c>
+      <c r="C586">
+        <v>0.27</v>
+      </c>
+      <c r="D586">
+        <v>0.27</v>
+      </c>
+      <c r="E586">
+        <v>0.27</v>
+      </c>
+      <c r="F586">
+        <v>0.27</v>
+      </c>
+      <c r="G586">
+        <v>0.27</v>
+      </c>
+      <c r="H586">
+        <v>0.33</v>
+      </c>
+      <c r="I586">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="589" spans="1:9">
+      <c r="A589" t="s">
+        <v>87</v>
+      </c>
+      <c r="B589">
+        <v>1741265</v>
+      </c>
+      <c r="C589">
+        <v>1759360</v>
+      </c>
+      <c r="D589">
+        <v>1795063</v>
+      </c>
+      <c r="E589">
+        <v>1834647</v>
+      </c>
+      <c r="F589">
+        <v>1880993</v>
+      </c>
+      <c r="G589">
+        <v>1971867</v>
+      </c>
+      <c r="H589">
+        <v>2059077</v>
+      </c>
+      <c r="I589">
+        <v>2135842</v>
+      </c>
+    </row>
+    <row r="590" spans="1:9">
+      <c r="A590" t="s">
+        <v>110</v>
+      </c>
+      <c r="B590">
+        <v>1755152</v>
+      </c>
+      <c r="C590">
+        <v>1775739</v>
+      </c>
+      <c r="D590">
+        <v>1815744</v>
+      </c>
+      <c r="E590">
+        <v>1861299</v>
+      </c>
+      <c r="F590">
+        <v>1907699</v>
+      </c>
+      <c r="G590">
+        <v>2008997</v>
+      </c>
+      <c r="H590">
+        <v>2105883</v>
+      </c>
+      <c r="I590">
+        <v>2205560</v>
+      </c>
+    </row>
+    <row r="591" spans="1:9">
+      <c r="A591" t="s">
+        <v>112</v>
+      </c>
+      <c r="B591">
+        <v>4959892</v>
+      </c>
+      <c r="C591">
+        <v>4174485</v>
+      </c>
+      <c r="D591">
+        <v>3813211</v>
+      </c>
+      <c r="E591">
+        <v>3451424</v>
+      </c>
+      <c r="F591">
+        <v>3098768</v>
+      </c>
+      <c r="G591">
+        <v>2773787</v>
+      </c>
+      <c r="H591">
+        <v>2724301</v>
+      </c>
+      <c r="I591">
+        <v>2852320</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9">
+      <c r="A592" t="s">
+        <v>114</v>
+      </c>
+      <c r="B592">
+        <v>1707283</v>
+      </c>
+      <c r="C592">
+        <v>1727833</v>
+      </c>
+      <c r="D592">
+        <v>1753934</v>
+      </c>
+      <c r="E592">
+        <v>1791103</v>
+      </c>
+      <c r="F592">
+        <v>1834464</v>
+      </c>
+      <c r="G592">
+        <v>1918633</v>
+      </c>
+      <c r="H592">
+        <v>2002672</v>
+      </c>
+      <c r="I592">
+        <v>2085067</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9">
+      <c r="A593" t="s">
+        <v>88</v>
+      </c>
+      <c r="B593">
+        <v>1743127.54223433</v>
+      </c>
+      <c r="C593">
+        <v>1761116.42808452</v>
+      </c>
+      <c r="D593">
+        <v>1796762.43012951</v>
+      </c>
+      <c r="E593">
+        <v>1836975.74028629</v>
+      </c>
+      <c r="F593">
+        <v>1882757.74846625</v>
+      </c>
+      <c r="G593">
+        <v>1974608.10702113</v>
+      </c>
+      <c r="H593">
+        <v>2063170.45194274</v>
+      </c>
+      <c r="I593">
+        <v>2145413.33197</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" t="s">
+        <v>89</v>
+      </c>
+      <c r="B594">
+        <v>0.2</v>
+      </c>
+      <c r="C594">
+        <v>0.27</v>
+      </c>
+      <c r="D594">
+        <v>0.27</v>
+      </c>
+      <c r="E594">
+        <v>0.27</v>
+      </c>
+      <c r="F594">
+        <v>0.27</v>
+      </c>
+      <c r="G594">
+        <v>0.27</v>
+      </c>
+      <c r="H594">
+        <v>0.27</v>
+      </c>
+      <c r="I594">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" t="s">
+        <v>87</v>
+      </c>
+      <c r="B597">
+        <v>24130887</v>
+      </c>
+      <c r="C597">
+        <v>22466491</v>
+      </c>
+      <c r="D597">
+        <v>20870336</v>
+      </c>
+      <c r="E597">
+        <v>19351008</v>
+      </c>
+      <c r="F597">
+        <v>17837122</v>
+      </c>
+      <c r="G597">
+        <v>16306991</v>
+      </c>
+      <c r="H597">
+        <v>14787565</v>
+      </c>
+      <c r="I597">
+        <v>13128142</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" t="s">
+        <v>110</v>
+      </c>
+      <c r="B598">
+        <v>24163127</v>
+      </c>
+      <c r="C598">
+        <v>22510623</v>
+      </c>
+      <c r="D598">
+        <v>20922272</v>
+      </c>
+      <c r="E598">
+        <v>19397857</v>
+      </c>
+      <c r="F598">
+        <v>17884556</v>
+      </c>
+      <c r="G598">
+        <v>16352452</v>
+      </c>
+      <c r="H598">
+        <v>14837817</v>
+      </c>
+      <c r="I598">
+        <v>13183385</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" t="s">
+        <v>112</v>
+      </c>
+      <c r="B599">
+        <v>30624922</v>
+      </c>
+      <c r="C599">
+        <v>25793899</v>
+      </c>
+      <c r="D599">
+        <v>25370931</v>
+      </c>
+      <c r="E599">
+        <v>24796323</v>
+      </c>
+      <c r="F599">
+        <v>24297087</v>
+      </c>
+      <c r="G599">
+        <v>23829561</v>
+      </c>
+      <c r="H599">
+        <v>23327457</v>
+      </c>
+      <c r="I599">
+        <v>22447967</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600" t="s">
+        <v>114</v>
+      </c>
+      <c r="B600">
+        <v>24056080</v>
+      </c>
+      <c r="C600">
+        <v>22396951</v>
+      </c>
+      <c r="D600">
+        <v>20786127</v>
+      </c>
+      <c r="E600">
+        <v>19268610</v>
+      </c>
+      <c r="F600">
+        <v>17724504</v>
+      </c>
+      <c r="G600">
+        <v>16176290</v>
+      </c>
+      <c r="H600">
+        <v>14682124</v>
+      </c>
+      <c r="I600">
+        <v>13024423</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601" t="s">
+        <v>88</v>
+      </c>
+      <c r="B601">
+        <v>24145016.4792092</v>
+      </c>
+      <c r="C601">
+        <v>22477567.3415132</v>
+      </c>
+      <c r="D601">
+        <v>20881564.5194274</v>
+      </c>
+      <c r="E601">
+        <v>19361438.4955691</v>
+      </c>
+      <c r="F601">
+        <v>17842293.5800954</v>
+      </c>
+      <c r="G601">
+        <v>16318761.4423994</v>
+      </c>
+      <c r="H601">
+        <v>14802830.850034</v>
+      </c>
+      <c r="I601">
+        <v>13147380.1097477</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602" t="s">
+        <v>89</v>
+      </c>
+      <c r="B602">
+        <v>0.27</v>
+      </c>
+      <c r="C602">
+        <v>0.27</v>
+      </c>
+      <c r="D602">
+        <v>0.27</v>
+      </c>
+      <c r="E602">
+        <v>0.27</v>
+      </c>
+      <c r="F602">
+        <v>0.27</v>
+      </c>
+      <c r="G602">
+        <v>0.27</v>
+      </c>
+      <c r="H602">
+        <v>0.27</v>
+      </c>
+      <c r="I602">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604" t="s">
+        <v>148</v>
+      </c>
+      <c r="B604" t="s">
+        <v>145</v>
+      </c>
+      <c r="C604" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="605" spans="1:16">
+      <c r="A605" t="s">
+        <v>108</v>
+      </c>
+      <c r="B605">
+        <v>1</v>
+      </c>
+      <c r="D605">
+        <v>1</v>
+      </c>
+      <c r="E605">
+        <v>2</v>
+      </c>
+      <c r="F605">
+        <v>3</v>
+      </c>
+      <c r="G605">
+        <v>4</v>
+      </c>
+      <c r="H605"/>
+      <c r="I605">
+        <v>1</v>
+      </c>
+      <c r="J605">
+        <v>2</v>
+      </c>
+      <c r="K605">
+        <v>3</v>
+      </c>
+      <c r="L605">
+        <v>4</v>
+      </c>
+      <c r="M605">
+        <v>5</v>
+      </c>
+      <c r="N605">
+        <v>6</v>
+      </c>
+      <c r="O605">
+        <v>7</v>
+      </c>
+      <c r="P605">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="606" spans="1:16">
+      <c r="A606" t="s">
+        <v>87</v>
+      </c>
+      <c r="B606">
+        <v>35136</v>
+      </c>
+      <c r="D606">
+        <v>40707</v>
+      </c>
+      <c r="E606">
+        <v>43657</v>
+      </c>
+      <c r="F606">
+        <v>46925</v>
+      </c>
+      <c r="G606">
+        <v>37658</v>
+      </c>
+      <c r="H606"/>
+      <c r="I606">
+        <v>55052</v>
+      </c>
+      <c r="J606">
+        <v>41603</v>
+      </c>
+      <c r="K606">
+        <v>58728</v>
+      </c>
+      <c r="L606">
+        <v>38722</v>
+      </c>
+      <c r="M606">
+        <v>62519</v>
+      </c>
+      <c r="N606">
+        <v>48022</v>
+      </c>
+      <c r="O606">
+        <v>44378</v>
+      </c>
+      <c r="P606">
+        <v>51510</v>
+      </c>
+    </row>
+    <row r="607" spans="1:16">
+      <c r="A607" t="s">
+        <v>110</v>
+      </c>
+      <c r="B607">
+        <v>42271</v>
+      </c>
+      <c r="D607">
+        <v>46902</v>
+      </c>
+      <c r="E607">
+        <v>50183</v>
+      </c>
+      <c r="F607">
+        <v>53385</v>
+      </c>
+      <c r="G607">
+        <v>43697</v>
+      </c>
+      <c r="H607"/>
+      <c r="I607">
+        <v>60394</v>
+      </c>
+      <c r="J607">
+        <v>46451</v>
+      </c>
+      <c r="K607">
+        <v>64290</v>
+      </c>
+      <c r="L607">
+        <v>43067</v>
+      </c>
+      <c r="M607">
+        <v>71744</v>
+      </c>
+      <c r="N607">
+        <v>53233</v>
+      </c>
+      <c r="O607">
+        <v>49742</v>
+      </c>
+      <c r="P607">
+        <v>56761</v>
+      </c>
+    </row>
+    <row r="608" spans="1:16">
+      <c r="A608" t="s">
+        <v>112</v>
+      </c>
+      <c r="B608">
+        <v>47627</v>
+      </c>
+      <c r="D608">
+        <v>69836</v>
+      </c>
+      <c r="E608">
+        <v>72927</v>
+      </c>
+      <c r="F608">
+        <v>65422</v>
+      </c>
+      <c r="G608">
+        <v>57693</v>
+      </c>
+      <c r="H608"/>
+      <c r="I608">
+        <v>83765</v>
+      </c>
+      <c r="J608">
+        <v>59024</v>
+      </c>
+      <c r="K608">
+        <v>117482</v>
+      </c>
+      <c r="L608">
+        <v>56449</v>
+      </c>
+      <c r="M608">
+        <v>96061</v>
+      </c>
+      <c r="N608">
+        <v>76823</v>
+      </c>
+      <c r="O608">
+        <v>73328</v>
+      </c>
+      <c r="P608">
+        <v>81353</v>
+      </c>
+    </row>
+    <row r="609" spans="1:16">
+      <c r="A609" t="s">
+        <v>114</v>
+      </c>
+      <c r="B609">
+        <v>21548</v>
+      </c>
+      <c r="D609">
+        <v>26157</v>
+      </c>
+      <c r="E609">
+        <v>28664</v>
+      </c>
+      <c r="F609">
+        <v>31991</v>
+      </c>
+      <c r="G609">
+        <v>23223</v>
+      </c>
+      <c r="H609"/>
+      <c r="I609">
+        <v>38416</v>
+      </c>
+      <c r="J609">
+        <v>27216</v>
+      </c>
+      <c r="K609">
+        <v>42544</v>
+      </c>
+      <c r="L609">
+        <v>23855</v>
+      </c>
+      <c r="M609">
+        <v>47152</v>
+      </c>
+      <c r="N609">
+        <v>32681</v>
+      </c>
+      <c r="O609">
+        <v>30311</v>
+      </c>
+      <c r="P609">
+        <v>35617</v>
+      </c>
+    </row>
+    <row r="610" spans="1:16">
+      <c r="A610" t="s">
+        <v>88</v>
+      </c>
+      <c r="B610">
+        <v>34743.5426447247</v>
+      </c>
+      <c r="D610">
+        <v>40598.186116448</v>
+      </c>
+      <c r="E610">
+        <v>43589.4454932754</v>
+      </c>
+      <c r="F610">
+        <v>46843.3891905438</v>
+      </c>
+      <c r="G610">
+        <v>37595.4527608386</v>
+      </c>
+      <c r="H610"/>
+      <c r="I610">
+        <v>54639.8308270676</v>
+      </c>
+      <c r="J610">
+        <v>41270.9241436925</v>
+      </c>
+      <c r="K610">
+        <v>58351.4992899507</v>
+      </c>
+      <c r="L610">
+        <v>38281.265641968</v>
+      </c>
+      <c r="M610">
+        <v>62371.477570796</v>
+      </c>
+      <c r="N610">
+        <v>47640.7262322472</v>
+      </c>
+      <c r="O610">
+        <v>44140.1709130398</v>
+      </c>
+      <c r="P610">
+        <v>51153.3938685155</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611" t="s">
+        <v>89</v>
+      </c>
+      <c r="B611">
+        <v>0</v>
+      </c>
+      <c r="D611">
+        <v>0</v>
+      </c>
+      <c r="I611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1">
+      <c r="A613" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1">
+      <c r="A621" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1">
+      <c r="A624" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1">
+      <c r="A626" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1">
+      <c r="A627" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1">
+      <c r="A629" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1">
+      <c r="A631" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState ref="K565:R565" columnSort="1">
+    <sortCondition ref="K565:R565"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
